--- a/src/main/resources/nested-each-merge-template.xlsx
+++ b/src/main/resources/nested-each-merge-template.xlsx
@@ -23,17 +23,17 @@
     </comment>
     <comment authorId="0" ref="A6">
       <text>
-        <t xml:space="preserve">jx:each-merge(items="companies" var="company" childItems="departments" lastCell="F7")</t>
+        <t xml:space="preserve">jx:each-merge(items="companies" var="company" lastCell="F7")</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6">
       <text>
-        <t xml:space="preserve">jx:each-merge(items="company.departments" var="department" childItems="employees" lastCell="F7")</t>
+        <t xml:space="preserve">jx:each-merge(items="company.departments" var="department" lastCell="F7")</t>
       </text>
     </comment>
     <comment authorId="0" ref="C6">
       <text>
-        <t xml:space="preserve">jx:each(items="department.employees" var="employee" lastCell="E6")</t>
+        <t xml:space="preserve">jx:each(items="department.employees" var="employee" lastCell="F6")</t>
       </text>
     </comment>
   </commentList>
@@ -173,8 +173,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF4A86E8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4A86E8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4A86E8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4A86E8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -192,16 +206,16 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
